--- a/ARCHIVOS DE CLASES/CLASE 1/PLANILLA PARA PIEZAS.xlsx
+++ b/ARCHIVOS DE CLASES/CLASE 1/PLANILLA PARA PIEZAS.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28724"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JORGE\Desktop\clase 1\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIC\Downloads\curso de sketchup\ARCHIVOS DE CLASES\CLASE 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2AE7F84-FBF6-4CE7-9D2A-C8057197AFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB0A2B7-AC83-4989-9E2F-69CA06693A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F03B0B8C-8FB2-43C2-A406-2BF4EC27B763}"/>
+    <workbookView xWindow="38280" yWindow="5295" windowWidth="29040" windowHeight="15720" xr2:uid="{F03B0B8C-8FB2-43C2-A406-2BF4EC27B763}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>N°</t>
   </si>
@@ -33,20 +33,53 @@
     <t>DESCRIPCION</t>
   </si>
   <si>
-    <t>LARGO</t>
-  </si>
-  <si>
-    <t>ANCHO</t>
-  </si>
-  <si>
     <t xml:space="preserve">CANTIDAD </t>
+  </si>
+  <si>
+    <t>LARGO (mm)</t>
+  </si>
+  <si>
+    <t>ANCHO (mm)</t>
+  </si>
+  <si>
+    <t>Laterales</t>
+  </si>
+  <si>
+    <t>Tapas</t>
+  </si>
+  <si>
+    <t>Repisa grande</t>
+  </si>
+  <si>
+    <t>Repisa mediano</t>
+  </si>
+  <si>
+    <t>Repisa pequeño</t>
+  </si>
+  <si>
+    <t>Zocalo</t>
+  </si>
+  <si>
+    <t>Soporte zocalo</t>
+  </si>
+  <si>
+    <t>Fondo</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Puertas</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +94,14 @@
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -70,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,18 +119,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Total" xfId="1" builtinId="25"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -125,13 +180,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{453F53D6-1BD7-4B17-9CCA-ED1393AA56B3}" name="Tabla2" displayName="Tabla2" ref="A1:E31" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E31" xr:uid="{453F53D6-1BD7-4B17-9CCA-ED1393AA56B3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{453F53D6-1BD7-4B17-9CCA-ED1393AA56B3}" name="Tabla2" displayName="Tabla2" ref="A1:E32" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E32" xr:uid="{453F53D6-1BD7-4B17-9CCA-ED1393AA56B3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6708ED0A-8FFE-4237-9EFD-CB430EEB3F20}" name="N°"/>
     <tableColumn id="2" xr3:uid="{A6A2C6A2-B394-4A21-B13D-5992AA919BB2}" name="DESCRIPCION"/>
-    <tableColumn id="3" xr3:uid="{50E45C8A-B0C4-4B8F-B7D4-81A84E0EBD74}" name="LARGO"/>
-    <tableColumn id="4" xr3:uid="{0B2B48AA-BF03-437F-8B21-B4C8BCBD20CB}" name="ANCHO"/>
+    <tableColumn id="3" xr3:uid="{50E45C8A-B0C4-4B8F-B7D4-81A84E0EBD74}" name="LARGO (mm)"/>
+    <tableColumn id="4" xr3:uid="{0B2B48AA-BF03-437F-8B21-B4C8BCBD20CB}" name="ANCHO (mm)"/>
     <tableColumn id="5" xr3:uid="{1627C188-7EE3-411E-BED8-CDB162BA92A5}" name="CANTIDAD "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -139,7 +194,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,18 +490,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867E6D4C-C455-4198-A071-909D7417DBE3}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -458,165 +513,195 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2100</v>
+      </c>
+      <c r="D2">
+        <v>405</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>840</v>
+      </c>
+      <c r="D3">
+        <v>395</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1470</v>
+      </c>
+      <c r="D4">
+        <v>395</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>840</v>
+      </c>
+      <c r="D5">
+        <v>395</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>590</v>
+      </c>
+      <c r="D6">
+        <v>395</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>235</v>
+      </c>
+      <c r="D7">
+        <v>395</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>870</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>370</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2100</v>
+      </c>
+      <c r="D10">
+        <v>850</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C11">
+        <v>615</v>
+      </c>
+      <c r="D11">
+        <v>433</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="E14">
+        <f>SUM(E2:E11)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
+    <row r="15" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/ARCHIVOS DE CLASES/CLASE 1/PLANILLA PARA PIEZAS.xlsx
+++ b/ARCHIVOS DE CLASES/CLASE 1/PLANILLA PARA PIEZAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIC\Downloads\curso de sketchup\ARCHIVOS DE CLASES\CLASE 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB0A2B7-AC83-4989-9E2F-69CA06693A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145A62D-864A-4B6C-B2AD-00CD159D8F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5295" windowWidth="29040" windowHeight="15720" xr2:uid="{F03B0B8C-8FB2-43C2-A406-2BF4EC27B763}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>N°</t>
   </si>
@@ -48,31 +48,28 @@
     <t>Tapas</t>
   </si>
   <si>
-    <t>Repisa grande</t>
-  </si>
-  <si>
-    <t>Repisa mediano</t>
-  </si>
-  <si>
-    <t>Repisa pequeño</t>
-  </si>
-  <si>
-    <t>Zocalo</t>
-  </si>
-  <si>
-    <t>Soporte zocalo</t>
-  </si>
-  <si>
-    <t>Fondo</t>
-  </si>
-  <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>Puertas</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Tapa de MDF con acabado (Fondo)</t>
+  </si>
+  <si>
+    <t>Division vertical</t>
+  </si>
+  <si>
+    <t>Division horizontal mediano</t>
+  </si>
+  <si>
+    <t>Division horizontal pequeño</t>
+  </si>
+  <si>
+    <t>Zocalo inferior</t>
+  </si>
+  <si>
+    <t>Soporte zocalo inferior</t>
+  </si>
+  <si>
+    <t>Puertas bajas</t>
   </si>
 </sst>
 </file>
@@ -103,12 +100,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -135,12 +138,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{453F53D6-1BD7-4B17-9CCA-ED1393AA56B3}" name="Tabla2" displayName="Tabla2" ref="A1:E32" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E32" xr:uid="{453F53D6-1BD7-4B17-9CCA-ED1393AA56B3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{453F53D6-1BD7-4B17-9CCA-ED1393AA56B3}" name="Tabla2" displayName="Tabla2" ref="A1:E30" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E30" xr:uid="{453F53D6-1BD7-4B17-9CCA-ED1393AA56B3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6708ED0A-8FFE-4237-9EFD-CB430EEB3F20}" name="N°"/>
     <tableColumn id="2" xr3:uid="{A6A2C6A2-B394-4A21-B13D-5992AA919BB2}" name="DESCRIPCION"/>
@@ -490,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867E6D4C-C455-4198-A071-909D7417DBE3}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +563,7 @@
         <v>395</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -561,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1470</v>
@@ -578,16 +588,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>840</v>
+        <v>590</v>
       </c>
       <c r="D5">
         <v>395</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,13 +605,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>590</v>
+        <v>395</v>
       </c>
       <c r="D6">
-        <v>395</v>
+        <v>235</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -612,16 +622,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>235</v>
+        <v>870</v>
       </c>
       <c r="D7">
-        <v>395</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,16 +639,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>870</v>
+        <v>370</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,62 +656,48 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>370</v>
+        <v>615</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
         <v>2100</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>850</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>615</v>
-      </c>
-      <c r="D11">
-        <v>433</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <f>SUM(E2:E11)</f>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E10)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
